--- a/results-not-normalized/Not-normalized.xlsx
+++ b/results-not-normalized/Not-normalized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf2ea51ea12e088c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf2ea51ea12e088c/Documents/CMU/22Spring/16711/Project/results-not-normalized/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="8_{D933526D-D32A-44D3-B4A0-CAA195E2E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CD8C2E6-7680-4086-98D5-C49416C96197}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{3E6FED73-B883-4AC2-B4E9-8612E04D8991}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{3E6FED73-B883-4AC2-B4E9-8612E04D8991}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
